--- a/data_hackaton.xlsx
+++ b/data_hackaton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gleb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Hackathons\llama2-with-clarifai\insight-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8543B916-A804-40B9-9778-89B76D345433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0BB0B0-4F37-41CF-BA65-A42CE80C5046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A27FA9E5-EDEA-4640-8EEB-4A1DFB4C2B72}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="14400" windowHeight="8183" xr2:uid="{A27FA9E5-EDEA-4640-8EEB-4A1DFB4C2B72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,9 +108,6 @@
     <t>Jonathan Clark</t>
   </si>
   <si>
-    <t xml:space="preserve">Michelle Kim </t>
-  </si>
-  <si>
     <t>Dr. Brian Wilson</t>
   </si>
   <si>
@@ -225,13 +220,16 @@
   </si>
   <si>
     <t>Sustainable Design, Life Cycle Assessment, Environmental Impact Analysis</t>
+  </si>
+  <si>
+    <t>Michelle Kim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,22 +597,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71186EB-3DC3-439B-856D-65393EFB7E6C}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6875" customWidth="1"/>
+    <col min="3" max="3" width="39.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5625" customWidth="1"/>
+    <col min="6" max="6" width="8.875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -622,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -633,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -644,10 +642,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -655,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -666,10 +664,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -677,10 +675,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -688,65 +686,65 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -754,10 +752,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -765,84 +763,84 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
